--- a/vtechmunkanaplo.xlsx
+++ b/vtechmunkanaplo.xlsx
@@ -23,9 +23,17 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>V-Tech munkanapló</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,13 +42,36 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -55,8 +86,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -337,12 +375,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D2:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="7" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:N5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>